--- a/datos/ecoalf.xlsx
+++ b/datos/ecoalf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="368">
   <si>
     <t>nombre</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>tallas</t>
+  </si>
+  <si>
+    <t>agua</t>
+  </si>
+  <si>
+    <t>co2</t>
   </si>
   <si>
     <t>categoria</t>
@@ -1482,13 +1488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,3429 +1513,3435 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H12" t="s">
+        <v>219</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H14" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F15" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H15" t="s">
+        <v>219</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
-      </c>
-      <c r="F16" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H17" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
-      </c>
-      <c r="F19" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H19" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" t="s">
-        <v>217</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E22" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H22" t="s">
+        <v>219</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F23" t="s">
-        <v>217</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" t="s">
-        <v>218</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H24" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" t="s">
-        <v>217</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H25" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H26" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" t="s">
-        <v>217</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H27" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" t="s">
-        <v>217</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H28" t="s">
+        <v>219</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H29" t="s">
+        <v>219</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" t="s">
-        <v>217</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H31" t="s">
+        <v>219</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" t="s">
-        <v>218</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>220</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" t="s">
-        <v>217</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H33" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
-      </c>
-      <c r="F34" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>210</v>
-      </c>
-      <c r="F35" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H35" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H36" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
-      </c>
-      <c r="F38" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H38" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" t="s">
-        <v>217</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H39" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
-      </c>
-      <c r="F40" t="s">
-        <v>217</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
-      </c>
-      <c r="F42" t="s">
-        <v>217</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H42" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>210</v>
-      </c>
-      <c r="F43" t="s">
-        <v>217</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H43" t="s">
+        <v>219</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" t="s">
-        <v>217</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H44" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
-      </c>
-      <c r="F45" t="s">
-        <v>217</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H45" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" t="s">
-        <v>217</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" t="s">
-        <v>217</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H47" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
-        <v>210</v>
-      </c>
-      <c r="F48" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H48" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
-      </c>
-      <c r="F49" t="s">
-        <v>217</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H49" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E50" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H50" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>210</v>
-      </c>
-      <c r="F51" t="s">
-        <v>217</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H51" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" t="s">
-        <v>217</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H52" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
-      </c>
-      <c r="F53" t="s">
-        <v>217</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H53" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" t="s">
-        <v>217</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H54" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
-      </c>
-      <c r="F55" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H55" t="s">
+        <v>220</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
-      </c>
-      <c r="F56" t="s">
-        <v>217</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H56" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
-      </c>
-      <c r="F57" t="s">
-        <v>218</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H57" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
-      </c>
-      <c r="F58" t="s">
-        <v>217</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H58" t="s">
+        <v>219</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="H59" t="s">
+        <v>219</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
-      </c>
-      <c r="F60" t="s">
-        <v>217</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="H60" t="s">
+        <v>219</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>158</v>
+      </c>
+      <c r="H61" t="s">
+        <v>219</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" t="s">
-        <v>217</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H62" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
-      </c>
-      <c r="F63" t="s">
-        <v>217</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H63" t="s">
+        <v>219</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
-      </c>
-      <c r="F64" t="s">
-        <v>217</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H64" t="s">
+        <v>219</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" t="s">
-        <v>217</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H65" t="s">
+        <v>219</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
-      </c>
-      <c r="F66" t="s">
-        <v>217</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H66" t="s">
+        <v>219</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
-      </c>
-      <c r="F67" t="s">
-        <v>217</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="H67" t="s">
+        <v>219</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
-      </c>
-      <c r="F68" t="s">
-        <v>217</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>187</v>
+      </c>
+      <c r="H68" t="s">
+        <v>219</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" t="s">
-        <v>217</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>189</v>
+      </c>
+      <c r="H69" t="s">
+        <v>219</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
-      </c>
-      <c r="F70" t="s">
-        <v>217</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>189</v>
+      </c>
+      <c r="H70" t="s">
+        <v>219</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F71" t="s">
-        <v>217</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>189</v>
+      </c>
+      <c r="H71" t="s">
+        <v>219</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
-      </c>
-      <c r="F72" t="s">
-        <v>217</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H72" t="s">
+        <v>219</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
-      </c>
-      <c r="F73" t="s">
-        <v>217</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H73" t="s">
+        <v>219</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
-      </c>
-      <c r="F74" t="s">
-        <v>217</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H74" t="s">
+        <v>219</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" t="s">
-        <v>217</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H75" t="s">
+        <v>219</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" t="s">
-        <v>217</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H76" t="s">
+        <v>219</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
-      </c>
-      <c r="F77" t="s">
-        <v>217</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H77" t="s">
+        <v>219</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
-      </c>
-      <c r="F78" t="s">
-        <v>217</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H78" t="s">
+        <v>219</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
-      </c>
-      <c r="F79" t="s">
-        <v>217</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H79" t="s">
+        <v>219</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
-      </c>
-      <c r="F80" t="s">
-        <v>217</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H80" t="s">
+        <v>219</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
-      </c>
-      <c r="F81" t="s">
-        <v>219</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H81" t="s">
+        <v>221</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E82" t="s">
-        <v>215</v>
-      </c>
-      <c r="F82" t="s">
-        <v>219</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H82" t="s">
+        <v>221</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E83" t="s">
-        <v>215</v>
-      </c>
-      <c r="F83" t="s">
-        <v>219</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H83" t="s">
+        <v>221</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
-      </c>
-      <c r="F84" t="s">
-        <v>219</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H84" t="s">
+        <v>221</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
-        <v>215</v>
-      </c>
-      <c r="F85" t="s">
-        <v>219</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H85" t="s">
+        <v>221</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
-      </c>
-      <c r="F86" t="s">
-        <v>219</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H86" t="s">
+        <v>221</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D87" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
-      </c>
-      <c r="F87" t="s">
-        <v>219</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H87" t="s">
+        <v>221</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
-      </c>
-      <c r="F88" t="s">
-        <v>219</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H88" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E89" t="s">
-        <v>215</v>
-      </c>
-      <c r="F89" t="s">
-        <v>219</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H89" t="s">
+        <v>221</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E90" t="s">
-        <v>215</v>
-      </c>
-      <c r="F90" t="s">
-        <v>219</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H90" t="s">
+        <v>221</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D91" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>215</v>
-      </c>
-      <c r="F91" t="s">
-        <v>219</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H91" t="s">
+        <v>221</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>215</v>
-      </c>
-      <c r="F92" t="s">
-        <v>219</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H92" t="s">
+        <v>221</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E93" t="s">
-        <v>215</v>
-      </c>
-      <c r="F93" t="s">
-        <v>219</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H93" t="s">
+        <v>221</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>215</v>
-      </c>
-      <c r="F94" t="s">
-        <v>219</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H94" t="s">
+        <v>221</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E95" t="s">
-        <v>215</v>
-      </c>
-      <c r="F95" t="s">
-        <v>219</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H95" t="s">
+        <v>221</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
-      </c>
-      <c r="F96" t="s">
-        <v>219</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H96" t="s">
+        <v>221</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>211</v>
-      </c>
-      <c r="F97" t="s">
-        <v>219</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H97" t="s">
+        <v>221</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
-      </c>
-      <c r="F98" t="s">
-        <v>219</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H98" t="s">
+        <v>221</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
-      </c>
-      <c r="F99" t="s">
-        <v>219</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H99" t="s">
+        <v>221</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
-      </c>
-      <c r="F100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H100" t="s">
+        <v>221</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E101" t="s">
-        <v>215</v>
-      </c>
-      <c r="F101" t="s">
-        <v>219</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H101" t="s">
+        <v>221</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E102" t="s">
-        <v>216</v>
-      </c>
-      <c r="F102" t="s">
-        <v>219</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H102" t="s">
+        <v>221</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C103" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D103" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E103" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" t="s">
-        <v>219</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H103" t="s">
+        <v>221</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E104" t="s">
-        <v>215</v>
-      </c>
-      <c r="F104" t="s">
-        <v>219</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H104" t="s">
+        <v>221</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D105" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E105" t="s">
-        <v>215</v>
-      </c>
-      <c r="F105" t="s">
-        <v>219</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H105" t="s">
+        <v>221</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E106" t="s">
-        <v>215</v>
-      </c>
-      <c r="F106" t="s">
-        <v>219</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H106" t="s">
+        <v>221</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E107" t="s">
-        <v>215</v>
-      </c>
-      <c r="F107" t="s">
-        <v>219</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H107" t="s">
+        <v>221</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D108" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>219</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H108" t="s">
+        <v>221</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>219</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H109" t="s">
+        <v>221</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D110" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>219</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H110" t="s">
+        <v>221</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D111" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>219</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H111" t="s">
+        <v>221</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
-      </c>
-      <c r="F112" t="s">
-        <v>219</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H112" t="s">
+        <v>221</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D113" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>219</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H113" t="s">
+        <v>221</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>219</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H114" t="s">
+        <v>221</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
-      </c>
-      <c r="F115" t="s">
-        <v>219</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H115" t="s">
+        <v>221</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D116" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
-      </c>
-      <c r="F116" t="s">
-        <v>219</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H116" t="s">
+        <v>221</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C117" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
-      </c>
-      <c r="F117" t="s">
-        <v>219</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H117" t="s">
+        <v>221</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
-      </c>
-      <c r="F118" t="s">
-        <v>219</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H118" t="s">
+        <v>221</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
-      </c>
-      <c r="F119" t="s">
-        <v>219</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H119" t="s">
+        <v>221</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C120" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E120" t="s">
-        <v>215</v>
-      </c>
-      <c r="F120" t="s">
-        <v>219</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H120" t="s">
+        <v>221</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C121" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D121" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E121" t="s">
-        <v>215</v>
-      </c>
-      <c r="F121" t="s">
-        <v>219</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H121" t="s">
+        <v>221</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D122" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E122" t="s">
-        <v>215</v>
-      </c>
-      <c r="F122" t="s">
-        <v>219</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H122" t="s">
+        <v>221</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C123" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E123" t="s">
-        <v>211</v>
-      </c>
-      <c r="F123" t="s">
-        <v>219</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H123" t="s">
+        <v>221</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D124" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E124" t="s">
-        <v>215</v>
-      </c>
-      <c r="F124" t="s">
-        <v>219</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H124" t="s">
+        <v>221</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C125" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D125" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E125" t="s">
-        <v>215</v>
-      </c>
-      <c r="F125" t="s">
-        <v>219</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H125" t="s">
+        <v>221</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D126" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E126" t="s">
-        <v>215</v>
-      </c>
-      <c r="F126" t="s">
-        <v>219</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H126" t="s">
+        <v>221</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E127" t="s">
-        <v>215</v>
-      </c>
-      <c r="F127" t="s">
-        <v>219</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H127" t="s">
+        <v>221</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E128" t="s">
-        <v>215</v>
-      </c>
-      <c r="F128" t="s">
-        <v>219</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H128" t="s">
+        <v>221</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E129" t="s">
-        <v>215</v>
-      </c>
-      <c r="F129" t="s">
-        <v>219</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H129" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C130" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D130" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E130" t="s">
-        <v>215</v>
-      </c>
-      <c r="F130" t="s">
-        <v>219</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H130" t="s">
+        <v>221</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C131" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E131" t="s">
-        <v>215</v>
-      </c>
-      <c r="F131" t="s">
-        <v>219</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H131" t="s">
+        <v>221</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D132" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E132" t="s">
-        <v>215</v>
-      </c>
-      <c r="F132" t="s">
-        <v>219</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H132" t="s">
+        <v>221</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C133" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E133" t="s">
-        <v>215</v>
-      </c>
-      <c r="F133" t="s">
-        <v>219</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H133" t="s">
+        <v>221</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E134" t="s">
-        <v>211</v>
-      </c>
-      <c r="F134" t="s">
-        <v>219</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H134" t="s">
+        <v>221</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D135" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E135" t="s">
-        <v>215</v>
-      </c>
-      <c r="F135" t="s">
-        <v>219</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H135" t="s">
+        <v>221</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C136" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E136" t="s">
-        <v>211</v>
-      </c>
-      <c r="F136" t="s">
-        <v>219</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H136" t="s">
+        <v>221</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D137" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E137" t="s">
-        <v>215</v>
-      </c>
-      <c r="F137" t="s">
-        <v>219</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H137" t="s">
+        <v>221</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D138" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E138" t="s">
-        <v>215</v>
-      </c>
-      <c r="F138" t="s">
-        <v>219</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H138" t="s">
+        <v>221</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C139" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E139" t="s">
-        <v>215</v>
-      </c>
-      <c r="F139" t="s">
-        <v>219</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H139" t="s">
+        <v>221</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D140" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E140" t="s">
-        <v>211</v>
-      </c>
-      <c r="F140" t="s">
-        <v>219</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H140" t="s">
+        <v>221</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C141" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E141" t="s">
-        <v>215</v>
-      </c>
-      <c r="F141" t="s">
-        <v>219</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H141" t="s">
+        <v>221</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D142" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E142" t="s">
-        <v>214</v>
-      </c>
-      <c r="F142" t="s">
-        <v>219</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H142" t="s">
+        <v>221</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C143" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D143" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E143" t="s">
-        <v>214</v>
-      </c>
-      <c r="F143" t="s">
-        <v>219</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H143" t="s">
+        <v>221</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D144" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E144" t="s">
-        <v>214</v>
-      </c>
-      <c r="F144" t="s">
-        <v>219</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H144" t="s">
+        <v>221</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C145" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D145" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E145" t="s">
-        <v>214</v>
-      </c>
-      <c r="F145" t="s">
-        <v>219</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="H145" t="s">
+        <v>221</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E146" t="s">
-        <v>211</v>
-      </c>
-      <c r="F146" t="s">
-        <v>219</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>213</v>
+      </c>
+      <c r="H146" t="s">
+        <v>221</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E147" t="s">
-        <v>211</v>
-      </c>
-      <c r="F147" t="s">
-        <v>219</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>365</v>
+        <v>213</v>
+      </c>
+      <c r="H147" t="s">
+        <v>221</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="G7" r:id="rId6"/>
-    <hyperlink ref="G8" r:id="rId7"/>
-    <hyperlink ref="G9" r:id="rId8"/>
-    <hyperlink ref="G10" r:id="rId9"/>
-    <hyperlink ref="G11" r:id="rId10"/>
-    <hyperlink ref="G12" r:id="rId11"/>
-    <hyperlink ref="G13" r:id="rId12"/>
-    <hyperlink ref="G14" r:id="rId13"/>
-    <hyperlink ref="G15" r:id="rId14"/>
-    <hyperlink ref="G16" r:id="rId15"/>
-    <hyperlink ref="G17" r:id="rId16"/>
-    <hyperlink ref="G18" r:id="rId17"/>
-    <hyperlink ref="G19" r:id="rId18"/>
-    <hyperlink ref="G20" r:id="rId19"/>
-    <hyperlink ref="G21" r:id="rId20"/>
-    <hyperlink ref="G22" r:id="rId21"/>
-    <hyperlink ref="G23" r:id="rId22"/>
-    <hyperlink ref="G24" r:id="rId23"/>
-    <hyperlink ref="G25" r:id="rId24"/>
-    <hyperlink ref="G26" r:id="rId25"/>
-    <hyperlink ref="G27" r:id="rId26"/>
-    <hyperlink ref="G28" r:id="rId27"/>
-    <hyperlink ref="G29" r:id="rId28"/>
-    <hyperlink ref="G30" r:id="rId29"/>
-    <hyperlink ref="G31" r:id="rId30"/>
-    <hyperlink ref="G32" r:id="rId31"/>
-    <hyperlink ref="G33" r:id="rId32"/>
-    <hyperlink ref="G34" r:id="rId33"/>
-    <hyperlink ref="G35" r:id="rId34"/>
-    <hyperlink ref="G36" r:id="rId35"/>
-    <hyperlink ref="G37" r:id="rId36"/>
-    <hyperlink ref="G38" r:id="rId37"/>
-    <hyperlink ref="G39" r:id="rId38"/>
-    <hyperlink ref="G40" r:id="rId39"/>
-    <hyperlink ref="G41" r:id="rId40"/>
-    <hyperlink ref="G42" r:id="rId41"/>
-    <hyperlink ref="G43" r:id="rId42"/>
-    <hyperlink ref="G44" r:id="rId43"/>
-    <hyperlink ref="G45" r:id="rId44"/>
-    <hyperlink ref="G46" r:id="rId45"/>
-    <hyperlink ref="G47" r:id="rId46"/>
-    <hyperlink ref="G48" r:id="rId47"/>
-    <hyperlink ref="G49" r:id="rId48"/>
-    <hyperlink ref="G50" r:id="rId49"/>
-    <hyperlink ref="G51" r:id="rId50"/>
-    <hyperlink ref="G52" r:id="rId51"/>
-    <hyperlink ref="G53" r:id="rId52"/>
-    <hyperlink ref="G54" r:id="rId53"/>
-    <hyperlink ref="G55" r:id="rId54"/>
-    <hyperlink ref="G56" r:id="rId55"/>
-    <hyperlink ref="G57" r:id="rId56"/>
-    <hyperlink ref="G58" r:id="rId57"/>
-    <hyperlink ref="G59" r:id="rId58"/>
-    <hyperlink ref="G60" r:id="rId59"/>
-    <hyperlink ref="G61" r:id="rId60"/>
-    <hyperlink ref="G62" r:id="rId61"/>
-    <hyperlink ref="G63" r:id="rId62"/>
-    <hyperlink ref="G64" r:id="rId63"/>
-    <hyperlink ref="G65" r:id="rId64"/>
-    <hyperlink ref="G66" r:id="rId65"/>
-    <hyperlink ref="G67" r:id="rId66"/>
-    <hyperlink ref="G68" r:id="rId67"/>
-    <hyperlink ref="G69" r:id="rId68"/>
-    <hyperlink ref="G70" r:id="rId69"/>
-    <hyperlink ref="G71" r:id="rId70"/>
-    <hyperlink ref="G72" r:id="rId71"/>
-    <hyperlink ref="G73" r:id="rId72"/>
-    <hyperlink ref="G74" r:id="rId73"/>
-    <hyperlink ref="G75" r:id="rId74"/>
-    <hyperlink ref="G76" r:id="rId75"/>
-    <hyperlink ref="G77" r:id="rId76"/>
-    <hyperlink ref="G78" r:id="rId77"/>
-    <hyperlink ref="G79" r:id="rId78"/>
-    <hyperlink ref="G80" r:id="rId79"/>
-    <hyperlink ref="G81" r:id="rId80"/>
-    <hyperlink ref="G82" r:id="rId81"/>
-    <hyperlink ref="G83" r:id="rId82"/>
-    <hyperlink ref="G84" r:id="rId83"/>
-    <hyperlink ref="G85" r:id="rId84"/>
-    <hyperlink ref="G86" r:id="rId85"/>
-    <hyperlink ref="G87" r:id="rId86"/>
-    <hyperlink ref="G88" r:id="rId87"/>
-    <hyperlink ref="G89" r:id="rId88"/>
-    <hyperlink ref="G90" r:id="rId89"/>
-    <hyperlink ref="G91" r:id="rId90"/>
-    <hyperlink ref="G92" r:id="rId91"/>
-    <hyperlink ref="G93" r:id="rId92"/>
-    <hyperlink ref="G94" r:id="rId93"/>
-    <hyperlink ref="G95" r:id="rId94"/>
-    <hyperlink ref="G96" r:id="rId95"/>
-    <hyperlink ref="G97" r:id="rId96"/>
-    <hyperlink ref="G98" r:id="rId97"/>
-    <hyperlink ref="G99" r:id="rId98"/>
-    <hyperlink ref="G100" r:id="rId99"/>
-    <hyperlink ref="G101" r:id="rId100"/>
-    <hyperlink ref="G102" r:id="rId101"/>
-    <hyperlink ref="G103" r:id="rId102"/>
-    <hyperlink ref="G104" r:id="rId103"/>
-    <hyperlink ref="G105" r:id="rId104"/>
-    <hyperlink ref="G106" r:id="rId105"/>
-    <hyperlink ref="G107" r:id="rId106"/>
-    <hyperlink ref="G108" r:id="rId107"/>
-    <hyperlink ref="G109" r:id="rId108"/>
-    <hyperlink ref="G110" r:id="rId109"/>
-    <hyperlink ref="G111" r:id="rId110"/>
-    <hyperlink ref="G112" r:id="rId111"/>
-    <hyperlink ref="G113" r:id="rId112"/>
-    <hyperlink ref="G114" r:id="rId113"/>
-    <hyperlink ref="G115" r:id="rId114"/>
-    <hyperlink ref="G116" r:id="rId115"/>
-    <hyperlink ref="G117" r:id="rId116"/>
-    <hyperlink ref="G118" r:id="rId117"/>
-    <hyperlink ref="G119" r:id="rId118"/>
-    <hyperlink ref="G120" r:id="rId119"/>
-    <hyperlink ref="G121" r:id="rId120"/>
-    <hyperlink ref="G122" r:id="rId121"/>
-    <hyperlink ref="G123" r:id="rId122"/>
-    <hyperlink ref="G124" r:id="rId123"/>
-    <hyperlink ref="G125" r:id="rId124"/>
-    <hyperlink ref="G126" r:id="rId125"/>
-    <hyperlink ref="G127" r:id="rId126"/>
-    <hyperlink ref="G128" r:id="rId127"/>
-    <hyperlink ref="G129" r:id="rId128"/>
-    <hyperlink ref="G130" r:id="rId129"/>
-    <hyperlink ref="G131" r:id="rId130"/>
-    <hyperlink ref="G132" r:id="rId131"/>
-    <hyperlink ref="G133" r:id="rId132"/>
-    <hyperlink ref="G134" r:id="rId133"/>
-    <hyperlink ref="G135" r:id="rId134"/>
-    <hyperlink ref="G136" r:id="rId135"/>
-    <hyperlink ref="G137" r:id="rId136"/>
-    <hyperlink ref="G138" r:id="rId137"/>
-    <hyperlink ref="G139" r:id="rId138"/>
-    <hyperlink ref="G140" r:id="rId139"/>
-    <hyperlink ref="G141" r:id="rId140"/>
-    <hyperlink ref="G142" r:id="rId141"/>
-    <hyperlink ref="G143" r:id="rId142"/>
-    <hyperlink ref="G144" r:id="rId143"/>
-    <hyperlink ref="G145" r:id="rId144"/>
-    <hyperlink ref="G146" r:id="rId145"/>
-    <hyperlink ref="G147" r:id="rId146"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I36" r:id="rId35"/>
+    <hyperlink ref="I37" r:id="rId36"/>
+    <hyperlink ref="I38" r:id="rId37"/>
+    <hyperlink ref="I39" r:id="rId38"/>
+    <hyperlink ref="I40" r:id="rId39"/>
+    <hyperlink ref="I41" r:id="rId40"/>
+    <hyperlink ref="I42" r:id="rId41"/>
+    <hyperlink ref="I43" r:id="rId42"/>
+    <hyperlink ref="I44" r:id="rId43"/>
+    <hyperlink ref="I45" r:id="rId44"/>
+    <hyperlink ref="I46" r:id="rId45"/>
+    <hyperlink ref="I47" r:id="rId46"/>
+    <hyperlink ref="I48" r:id="rId47"/>
+    <hyperlink ref="I49" r:id="rId48"/>
+    <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
+    <hyperlink ref="I55" r:id="rId54"/>
+    <hyperlink ref="I56" r:id="rId55"/>
+    <hyperlink ref="I57" r:id="rId56"/>
+    <hyperlink ref="I58" r:id="rId57"/>
+    <hyperlink ref="I59" r:id="rId58"/>
+    <hyperlink ref="I60" r:id="rId59"/>
+    <hyperlink ref="I61" r:id="rId60"/>
+    <hyperlink ref="I62" r:id="rId61"/>
+    <hyperlink ref="I63" r:id="rId62"/>
+    <hyperlink ref="I64" r:id="rId63"/>
+    <hyperlink ref="I65" r:id="rId64"/>
+    <hyperlink ref="I66" r:id="rId65"/>
+    <hyperlink ref="I67" r:id="rId66"/>
+    <hyperlink ref="I68" r:id="rId67"/>
+    <hyperlink ref="I69" r:id="rId68"/>
+    <hyperlink ref="I70" r:id="rId69"/>
+    <hyperlink ref="I71" r:id="rId70"/>
+    <hyperlink ref="I72" r:id="rId71"/>
+    <hyperlink ref="I73" r:id="rId72"/>
+    <hyperlink ref="I74" r:id="rId73"/>
+    <hyperlink ref="I75" r:id="rId74"/>
+    <hyperlink ref="I76" r:id="rId75"/>
+    <hyperlink ref="I77" r:id="rId76"/>
+    <hyperlink ref="I78" r:id="rId77"/>
+    <hyperlink ref="I79" r:id="rId78"/>
+    <hyperlink ref="I80" r:id="rId79"/>
+    <hyperlink ref="I81" r:id="rId80"/>
+    <hyperlink ref="I82" r:id="rId81"/>
+    <hyperlink ref="I83" r:id="rId82"/>
+    <hyperlink ref="I84" r:id="rId83"/>
+    <hyperlink ref="I85" r:id="rId84"/>
+    <hyperlink ref="I86" r:id="rId85"/>
+    <hyperlink ref="I87" r:id="rId86"/>
+    <hyperlink ref="I88" r:id="rId87"/>
+    <hyperlink ref="I89" r:id="rId88"/>
+    <hyperlink ref="I90" r:id="rId89"/>
+    <hyperlink ref="I91" r:id="rId90"/>
+    <hyperlink ref="I92" r:id="rId91"/>
+    <hyperlink ref="I93" r:id="rId92"/>
+    <hyperlink ref="I94" r:id="rId93"/>
+    <hyperlink ref="I95" r:id="rId94"/>
+    <hyperlink ref="I96" r:id="rId95"/>
+    <hyperlink ref="I97" r:id="rId96"/>
+    <hyperlink ref="I98" r:id="rId97"/>
+    <hyperlink ref="I99" r:id="rId98"/>
+    <hyperlink ref="I100" r:id="rId99"/>
+    <hyperlink ref="I101" r:id="rId100"/>
+    <hyperlink ref="I102" r:id="rId101"/>
+    <hyperlink ref="I103" r:id="rId102"/>
+    <hyperlink ref="I104" r:id="rId103"/>
+    <hyperlink ref="I105" r:id="rId104"/>
+    <hyperlink ref="I106" r:id="rId105"/>
+    <hyperlink ref="I107" r:id="rId106"/>
+    <hyperlink ref="I108" r:id="rId107"/>
+    <hyperlink ref="I109" r:id="rId108"/>
+    <hyperlink ref="I110" r:id="rId109"/>
+    <hyperlink ref="I111" r:id="rId110"/>
+    <hyperlink ref="I112" r:id="rId111"/>
+    <hyperlink ref="I113" r:id="rId112"/>
+    <hyperlink ref="I114" r:id="rId113"/>
+    <hyperlink ref="I115" r:id="rId114"/>
+    <hyperlink ref="I116" r:id="rId115"/>
+    <hyperlink ref="I117" r:id="rId116"/>
+    <hyperlink ref="I118" r:id="rId117"/>
+    <hyperlink ref="I119" r:id="rId118"/>
+    <hyperlink ref="I120" r:id="rId119"/>
+    <hyperlink ref="I121" r:id="rId120"/>
+    <hyperlink ref="I122" r:id="rId121"/>
+    <hyperlink ref="I123" r:id="rId122"/>
+    <hyperlink ref="I124" r:id="rId123"/>
+    <hyperlink ref="I125" r:id="rId124"/>
+    <hyperlink ref="I126" r:id="rId125"/>
+    <hyperlink ref="I127" r:id="rId126"/>
+    <hyperlink ref="I128" r:id="rId127"/>
+    <hyperlink ref="I129" r:id="rId128"/>
+    <hyperlink ref="I130" r:id="rId129"/>
+    <hyperlink ref="I131" r:id="rId130"/>
+    <hyperlink ref="I132" r:id="rId131"/>
+    <hyperlink ref="I133" r:id="rId132"/>
+    <hyperlink ref="I134" r:id="rId133"/>
+    <hyperlink ref="I135" r:id="rId134"/>
+    <hyperlink ref="I136" r:id="rId135"/>
+    <hyperlink ref="I137" r:id="rId136"/>
+    <hyperlink ref="I138" r:id="rId137"/>
+    <hyperlink ref="I139" r:id="rId138"/>
+    <hyperlink ref="I140" r:id="rId139"/>
+    <hyperlink ref="I141" r:id="rId140"/>
+    <hyperlink ref="I142" r:id="rId141"/>
+    <hyperlink ref="I143" r:id="rId142"/>
+    <hyperlink ref="I144" r:id="rId143"/>
+    <hyperlink ref="I145" r:id="rId144"/>
+    <hyperlink ref="I146" r:id="rId145"/>
+    <hyperlink ref="I147" r:id="rId146"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
